--- a/TpNewAccountThenNewCaseAllActions.xlsx
+++ b/TpNewAccountThenNewCaseAllActions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153DEDA1-CC18-47B9-9A6C-D17D7076FF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4B46C5-DA76-4E29-B431-F178CB7B2CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
